--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="194">
   <si>
     <t xml:space="preserve">settlement</t>
   </si>
@@ -40,6 +40,12 @@
     <t xml:space="preserve">example</t>
   </si>
   <si>
+    <t xml:space="preserve">feature_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">Матур</t>
   </si>
   <si>
@@ -50,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">корчитхан ‘видящий’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Причастия настоящего времени </t>
   </si>
   <si>
     <t xml:space="preserve">Нижний Матур</t>
@@ -694,13 +703,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.91"/>
@@ -708,6 +717,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="42.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,10 +739,16 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>52.6546</v>
@@ -741,18 +757,24 @@
         <v>89.4597</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>52.630012</v>
@@ -761,18 +783,24 @@
         <v>89.455134</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>52.8085</v>
@@ -781,18 +809,24 @@
         <v>89.482</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>52.74146</v>
@@ -801,18 +835,24 @@
         <v>89.431527</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>52.670572</v>
@@ -821,18 +861,24 @@
         <v>89.634923</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>52.7715</v>
@@ -841,18 +887,24 @@
         <v>89.7187</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>52.754909</v>
@@ -861,18 +913,24 @@
         <v>89.705288</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>52.7537</v>
@@ -881,18 +939,24 @@
         <v>89.8326</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>52.6826</v>
@@ -901,18 +965,24 @@
         <v>89.7003</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>52.870247</v>
@@ -921,18 +991,24 @@
         <v>90.138868</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>52.8621</v>
@@ -941,18 +1017,24 @@
         <v>90.0848</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>52.8505</v>
@@ -961,18 +1043,24 @@
         <v>89.9271</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>52.8277</v>
@@ -981,18 +1069,24 @@
         <v>89.9585</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>52.812</v>
@@ -1001,18 +1095,24 @@
         <v>89.9889</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>52.8457</v>
@@ -1021,18 +1121,24 @@
         <v>90.1112</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>52.8149</v>
@@ -1041,18 +1147,24 @@
         <v>90.041</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>52.7151</v>
@@ -1061,18 +1173,24 @@
         <v>90.3163</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>52.7115</v>
@@ -1081,18 +1199,24 @@
         <v>90.2689</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>52.8813</v>
@@ -1101,18 +1225,24 @@
         <v>90.2441</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>52.8394</v>
@@ -1121,18 +1251,24 @@
         <v>90.4369</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>52.8683</v>
@@ -1141,18 +1277,24 @@
         <v>90.4353</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>52.9478</v>
@@ -1161,18 +1303,24 @@
         <v>90.5994</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>53.0356</v>
@@ -1181,18 +1329,24 @@
         <v>90.6398</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>54</v>
+      <c r="G24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>52.9424</v>
@@ -1201,18 +1355,24 @@
         <v>90.308</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>53.0779</v>
@@ -1221,18 +1381,24 @@
         <v>90.5502</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>53.032543</v>
@@ -1241,18 +1407,24 @@
         <v>90.467225</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>52.9925</v>
@@ -1261,18 +1433,24 @@
         <v>89.7318</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>52.9613</v>
@@ -1281,18 +1459,24 @@
         <v>89.78</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>52.9591</v>
@@ -1301,18 +1485,24 @@
         <v>89.8673</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>52.9871</v>
@@ -1321,18 +1511,24 @@
         <v>89.9131</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>52.9319</v>
@@ -1341,18 +1537,24 @@
         <v>90.0428</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>52.972</v>
@@ -1361,18 +1563,24 @@
         <v>89.9883</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>52.9555</v>
@@ -1381,18 +1589,24 @@
         <v>90.1857</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>52.9552</v>
@@ -1401,18 +1615,24 @@
         <v>90.2529</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>53.015648</v>
@@ -1421,18 +1641,24 @@
         <v>90.331081</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>52.99511</v>
@@ -1441,18 +1667,24 @@
         <v>90.29818</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>52.9862</v>
@@ -1461,18 +1693,24 @@
         <v>90.1486</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>53.117</v>
@@ -1481,18 +1719,24 @@
         <v>89.9566</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>53.1368</v>
@@ -1501,18 +1745,24 @@
         <v>89.9124</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>53.0175</v>
@@ -1521,18 +1771,24 @@
         <v>89.8048</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>53.0974</v>
@@ -1541,18 +1797,24 @@
         <v>89.8011</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>53.2474</v>
@@ -1561,18 +1823,24 @@
         <v>90.0037</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>53.2143</v>
@@ -1581,18 +1849,24 @@
         <v>90.0484</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>53.2455</v>
@@ -1601,18 +1875,24 @@
         <v>90.2411</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>53.2162</v>
@@ -1621,18 +1901,24 @@
         <v>90.3478</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>53.1611</v>
@@ -1641,18 +1927,24 @@
         <v>90.3871</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>53.0748</v>
@@ -1661,18 +1953,24 @@
         <v>90.7898</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>53.2393</v>
@@ -1681,18 +1979,24 @@
         <v>90.806</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>53.16245</v>
@@ -1701,18 +2005,24 @@
         <v>90.651133</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>53.412101</v>
@@ -1721,18 +2031,24 @@
         <v>91.064942</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>53.59683</v>
@@ -1741,18 +2057,24 @@
         <v>91.383117</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>53.436546</v>
@@ -1761,18 +2083,24 @@
         <v>91.048104</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>53.444003</v>
@@ -1781,18 +2109,24 @@
         <v>91.03148</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>53.468458</v>
@@ -1801,18 +2135,24 @@
         <v>91.048764</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>53.618665</v>
@@ -1821,18 +2161,24 @@
         <v>91.287356</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>53.522148</v>
@@ -1841,18 +2187,24 @@
         <v>91.173522</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>53.140778</v>
@@ -1861,18 +2213,24 @@
         <v>90.508041</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>53.351703</v>
@@ -1881,18 +2239,24 @@
         <v>90.707368</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>53.346709</v>
@@ -1901,18 +2265,24 @@
         <v>90.527363</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>53.908154</v>
@@ -1921,18 +2291,24 @@
         <v>90.235956</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>53.669539</v>
@@ -1941,18 +2317,24 @@
         <v>90.294835</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>54.4402</v>
@@ -1961,18 +2343,24 @@
         <v>89.9449</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>54.316019</v>
@@ -1981,18 +2369,24 @@
         <v>90.061928</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>54.5421</v>
@@ -2001,18 +2395,24 @@
         <v>89.6581</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>54.5463</v>
@@ -2021,18 +2421,24 @@
         <v>89.5486</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>54.7954</v>
@@ -2041,18 +2447,24 @@
         <v>89.7754</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>55.1004</v>
@@ -2061,18 +2473,24 @@
         <v>90.222</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>55.0376</v>
@@ -2081,18 +2499,24 @@
         <v>90.4053</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>55.0745</v>
@@ -2101,18 +2525,24 @@
         <v>90.1212</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>54.5552</v>
@@ -2121,18 +2551,24 @@
         <v>89.4795</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>54.45777</v>
@@ -2141,18 +2577,24 @@
         <v>89.161355</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>54.7289</v>
@@ -2161,18 +2603,24 @@
         <v>89.4258</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>54.8213</v>
@@ -2181,18 +2629,24 @@
         <v>89.4482</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>54.9076</v>
@@ -2201,18 +2655,24 @@
         <v>89.5611</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>55.250628</v>
@@ -2221,18 +2681,24 @@
         <v>89.226055</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>54.8639</v>
@@ -2241,18 +2707,24 @@
         <v>89.2425</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>54.968</v>
@@ -2261,18 +2733,24 @@
         <v>89.3153</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>54.69533</v>
@@ -2281,18 +2759,24 @@
         <v>89.285083</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>53.3514</v>
@@ -2301,18 +2785,24 @@
         <v>89.0839</v>
       </c>
       <c r="D80" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E80" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="F80" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>53.417205</v>
@@ -2321,18 +2811,24 @@
         <v>89.139017</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>52.823691</v>
@@ -2341,18 +2837,24 @@
         <v>88.444952</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>52.828616</v>
@@ -2361,18 +2863,24 @@
         <v>88.512775</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>52.688087</v>
@@ -2381,18 +2889,24 @@
         <v>88.150987</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>52.763907</v>
@@ -2401,18 +2915,24 @@
         <v>87.84832</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>52.744078</v>
@@ -2421,18 +2941,24 @@
         <v>88.195032</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>53.043631</v>
@@ -2441,18 +2967,24 @@
         <v>88.241883</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>53.051095</v>
@@ -2461,13 +2993,19 @@
         <v>88.415075</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
